--- a/biology/Médecine/Hôpital_de_Panzi/Hôpital_de_Panzi.xlsx
+++ b/biology/Médecine/Hôpital_de_Panzi/Hôpital_de_Panzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Panzi</t>
+          <t>Hôpital_de_Panzi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital de Panzi est un hôpital pentecôtiste situé à Bukavu, capitale du Sud-Kivu, province de la République démocratique du Congo. Il est spécialisé dans le traitement des survivantes de violences sexuelles, la grande majorité d'entre elles ont été victimes d'abus sexuels.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Panzi</t>
+          <t>Hôpital_de_Panzi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital Panzi a été fondé en 1999 par la Communauté des Églises de Pentecôte en Afrique centrale (CEPAC) et le directeur Dr Denis Mukwege[1],[2]. 
-L'hôpital a été initialement construit pour 120 lits, mais a été augmenté à 350, dont 200 sont consacrés aux victimes de violences sexuelles[3]. En moyenne, l'hôpital Panzi, reçoit 410 patients par mois et accueille pour sa capacité maximale de patients[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital Panzi a été fondé en 1999 par la Communauté des Églises de Pentecôte en Afrique centrale (CEPAC) et le directeur Dr Denis Mukwege,. 
+L'hôpital a été initialement construit pour 120 lits, mais a été augmenté à 350, dont 200 sont consacrés aux victimes de violences sexuelles. En moyenne, l'hôpital Panzi, reçoit 410 patients par mois et accueille pour sa capacité maximale de patients,.
 </t>
         </is>
       </c>
